--- a/FEV_to_EPA_PEMS_map.xlsx
+++ b/FEV_to_EPA_PEMS_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\RWET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AA1BB-D1B2-4C28-AC10-22BEDA358853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A58CB-BD38-44A9-910D-A648AB4A86BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8B9D45D-F076-4051-AB7E-A8D888DA63D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E8B9D45D-F076-4051-AB7E-A8D888DA63D4}"/>
   </bookViews>
   <sheets>
     <sheet name="FEV_to_EPA_PEMS_map" sheetId="1" r:id="rId1"/>
@@ -1491,20 +1491,20 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>137</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>144</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -2103,27 +2103,28 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -2178,148 +2179,148 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>172</v>
       </c>
